--- a/storage/excel/sum131.xlsx
+++ b/storage/excel/sum131.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>บทที่ 13 ข้อมูลแนวโน้มการเปลี่ยนการใช้พลังงาน</t>
   </si>
@@ -101,9 +101,6 @@
     <t>ถ่าน</t>
   </si>
   <si>
-    <t>no_ra900_o264_ra901(266), no_ra900_o264_ra902(267)</t>
-  </si>
-  <si>
     <t>ฟืน</t>
   </si>
   <si>
@@ -113,28 +110,16 @@
     <t>แกลบ</t>
   </si>
   <si>
-    <t>no_ra900_o264_ra901(266), no_ra900_o264_ra902(268)</t>
-  </si>
-  <si>
     <t>ไม่แน่ใจ</t>
   </si>
   <si>
     <t>ขี้เลื่อย</t>
   </si>
   <si>
-    <t>no_ra900_o264_ra901(266), no_ra900_o264_ra902(269)</t>
-  </si>
-  <si>
     <t>ก๊าซแอลพีจี</t>
   </si>
   <si>
-    <t>no_ra900_o264_ra901(266), no_ra900_o264_ra902(270)</t>
-  </si>
-  <si>
     <t>ก๊าซชีวภาพ</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra901(266), no_ra900_o264_ra902(271)</t>
   </si>
   <si>
     <t>ไฟฟ้า</t>
@@ -286,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -353,21 +338,21 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -378,6 +363,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -682,7 +670,7 @@
   <dimension ref="A1:DH16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="CN15" sqref="CN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1121,357 +1109,357 @@
       <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="P8" s="22" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="P8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26" t="s">
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AD8" s="22" t="s">
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AD8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AE8" s="23" t="s">
+      <c r="AE8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="26" t="s">
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AR8" s="22" t="s">
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AR8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AS8" s="23" t="s">
+      <c r="AS8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="24"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="26" t="s">
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="26"/>
-      <c r="BD8" s="26"/>
-      <c r="BF8" s="22" t="s">
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="25"/>
+      <c r="BB8" s="25"/>
+      <c r="BC8" s="25"/>
+      <c r="BD8" s="25"/>
+      <c r="BF8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="BG8" s="23" t="s">
+      <c r="BG8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BH8" s="24"/>
-      <c r="BI8" s="24"/>
-      <c r="BJ8" s="24"/>
-      <c r="BK8" s="24"/>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="26" t="s">
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="23"/>
+      <c r="BK8" s="23"/>
+      <c r="BL8" s="24"/>
+      <c r="BM8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BN8" s="26"/>
-      <c r="BO8" s="26"/>
-      <c r="BP8" s="26"/>
-      <c r="BQ8" s="26"/>
-      <c r="BR8" s="26"/>
-      <c r="BT8" s="22" t="s">
+      <c r="BN8" s="25"/>
+      <c r="BO8" s="25"/>
+      <c r="BP8" s="25"/>
+      <c r="BQ8" s="25"/>
+      <c r="BR8" s="25"/>
+      <c r="BT8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="BU8" s="23" t="s">
+      <c r="BU8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BV8" s="24"/>
-      <c r="BW8" s="24"/>
-      <c r="BX8" s="24"/>
-      <c r="BY8" s="24"/>
-      <c r="BZ8" s="25"/>
-      <c r="CA8" s="26" t="s">
+      <c r="BV8" s="23"/>
+      <c r="BW8" s="23"/>
+      <c r="BX8" s="23"/>
+      <c r="BY8" s="23"/>
+      <c r="BZ8" s="24"/>
+      <c r="CA8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="CB8" s="26"/>
-      <c r="CC8" s="26"/>
-      <c r="CD8" s="26"/>
-      <c r="CE8" s="26"/>
-      <c r="CF8" s="26"/>
-      <c r="CH8" s="22" t="s">
+      <c r="CB8" s="25"/>
+      <c r="CC8" s="25"/>
+      <c r="CD8" s="25"/>
+      <c r="CE8" s="25"/>
+      <c r="CF8" s="25"/>
+      <c r="CH8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CI8" s="23" t="s">
+      <c r="CI8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="CJ8" s="24"/>
-      <c r="CK8" s="24"/>
-      <c r="CL8" s="24"/>
-      <c r="CM8" s="24"/>
-      <c r="CN8" s="25"/>
-      <c r="CO8" s="26" t="s">
+      <c r="CJ8" s="23"/>
+      <c r="CK8" s="23"/>
+      <c r="CL8" s="23"/>
+      <c r="CM8" s="23"/>
+      <c r="CN8" s="24"/>
+      <c r="CO8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="CP8" s="26"/>
-      <c r="CQ8" s="26"/>
-      <c r="CR8" s="26"/>
-      <c r="CS8" s="26"/>
-      <c r="CT8" s="26"/>
-      <c r="CV8" s="22" t="s">
+      <c r="CP8" s="25"/>
+      <c r="CQ8" s="25"/>
+      <c r="CR8" s="25"/>
+      <c r="CS8" s="25"/>
+      <c r="CT8" s="25"/>
+      <c r="CV8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="CW8" s="23" t="s">
+      <c r="CW8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="CX8" s="24"/>
-      <c r="CY8" s="24"/>
-      <c r="CZ8" s="24"/>
-      <c r="DA8" s="24"/>
-      <c r="DB8" s="25"/>
-      <c r="DC8" s="26" t="s">
+      <c r="CX8" s="23"/>
+      <c r="CY8" s="23"/>
+      <c r="CZ8" s="23"/>
+      <c r="DA8" s="23"/>
+      <c r="DB8" s="24"/>
+      <c r="DC8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="DD8" s="26"/>
-      <c r="DE8" s="26"/>
-      <c r="DF8" s="26"/>
-      <c r="DG8" s="26"/>
-      <c r="DH8" s="26"/>
+      <c r="DD8" s="25"/>
+      <c r="DE8" s="25"/>
+      <c r="DF8" s="25"/>
+      <c r="DG8" s="25"/>
+      <c r="DH8" s="25"/>
     </row>
     <row r="9" spans="1:112">
       <c r="B9" s="27"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26" t="s">
+      <c r="L9" s="25"/>
+      <c r="M9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23" t="s">
+      <c r="N9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="23" t="s">
+      <c r="R9" s="23"/>
+      <c r="S9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="23" t="s">
+      <c r="T9" s="23"/>
+      <c r="U9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="26" t="s">
+      <c r="V9" s="24"/>
+      <c r="W9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26" t="s">
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26" t="s">
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB9" s="26"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="23" t="s">
+      <c r="AB9" s="25"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="23" t="s">
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="23" t="s">
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="26" t="s">
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26" t="s">
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26" t="s">
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AP9" s="26"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="23" t="s">
+      <c r="AP9" s="25"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="23" t="s">
+      <c r="AT9" s="23"/>
+      <c r="AU9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="23" t="s">
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="26" t="s">
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26" t="s">
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26" t="s">
+      <c r="BB9" s="25"/>
+      <c r="BC9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="BD9" s="26"/>
-      <c r="BF9" s="22"/>
-      <c r="BG9" s="23" t="s">
+      <c r="BD9" s="25"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="23" t="s">
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="BJ9" s="24"/>
-      <c r="BK9" s="23" t="s">
+      <c r="BJ9" s="23"/>
+      <c r="BK9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="26" t="s">
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="BN9" s="26"/>
-      <c r="BO9" s="26" t="s">
+      <c r="BN9" s="25"/>
+      <c r="BO9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26" t="s">
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="BR9" s="26"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="23" t="s">
+      <c r="BR9" s="25"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="BV9" s="24"/>
-      <c r="BW9" s="23" t="s">
+      <c r="BV9" s="23"/>
+      <c r="BW9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="23" t="s">
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="BZ9" s="25"/>
-      <c r="CA9" s="26" t="s">
+      <c r="BZ9" s="24"/>
+      <c r="CA9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26" t="s">
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="CD9" s="26"/>
-      <c r="CE9" s="26" t="s">
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="CF9" s="26"/>
-      <c r="CH9" s="22"/>
-      <c r="CI9" s="23" t="s">
+      <c r="CF9" s="25"/>
+      <c r="CH9" s="26"/>
+      <c r="CI9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="23" t="s">
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="CL9" s="24"/>
-      <c r="CM9" s="23" t="s">
+      <c r="CL9" s="23"/>
+      <c r="CM9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="CN9" s="25"/>
-      <c r="CO9" s="26" t="s">
+      <c r="CN9" s="24"/>
+      <c r="CO9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="CP9" s="26"/>
-      <c r="CQ9" s="26" t="s">
+      <c r="CP9" s="25"/>
+      <c r="CQ9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="CR9" s="26"/>
-      <c r="CS9" s="26" t="s">
+      <c r="CR9" s="25"/>
+      <c r="CS9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="CT9" s="26"/>
-      <c r="CV9" s="22"/>
-      <c r="CW9" s="23" t="s">
+      <c r="CT9" s="25"/>
+      <c r="CV9" s="26"/>
+      <c r="CW9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="CX9" s="24"/>
-      <c r="CY9" s="23" t="s">
+      <c r="CX9" s="23"/>
+      <c r="CY9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="CZ9" s="24"/>
-      <c r="DA9" s="23" t="s">
+      <c r="CZ9" s="23"/>
+      <c r="DA9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="DB9" s="25"/>
-      <c r="DC9" s="26" t="s">
+      <c r="DB9" s="24"/>
+      <c r="DC9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="DD9" s="26"/>
-      <c r="DE9" s="26" t="s">
+      <c r="DD9" s="25"/>
+      <c r="DE9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="DF9" s="26"/>
-      <c r="DG9" s="26" t="s">
+      <c r="DF9" s="25"/>
+      <c r="DG9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="DH9" s="26"/>
+      <c r="DH9" s="25"/>
     </row>
     <row r="10" spans="1:112">
       <c r="B10" s="27"/>
@@ -1511,7 +1499,7 @@
       <c r="N10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="20" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1536,7 @@
       <c r="AB10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AD10" s="22"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="20" t="s">
         <v>24</v>
       </c>
@@ -1585,7 +1573,7 @@
       <c r="AP10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AR10" s="22"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="20" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1610,7 @@
       <c r="BD10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BF10" s="22"/>
+      <c r="BF10" s="26"/>
       <c r="BG10" s="20" t="s">
         <v>24</v>
       </c>
@@ -1659,7 +1647,7 @@
       <c r="BR10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BT10" s="22"/>
+      <c r="BT10" s="26"/>
       <c r="BU10" s="20" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1684,7 @@
       <c r="CF10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CH10" s="22"/>
+      <c r="CH10" s="26"/>
       <c r="CI10" s="20" t="s">
         <v>24</v>
       </c>
@@ -1733,7 +1721,7 @@
       <c r="CT10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CV10" s="22"/>
+      <c r="CV10" s="26"/>
       <c r="CW10" s="20" t="s">
         <v>24</v>
       </c>
@@ -1776,22 +1764,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="28">
-        <v>18527.416490214</v>
+        <v>129740.27105019</v>
       </c>
       <c r="D11" s="29">
-        <v>0.013104935081713</v>
+        <v>0.091768748788838</v>
       </c>
       <c r="E11" s="29">
-        <v>51460.293907687</v>
+        <v>215038.91927821</v>
       </c>
       <c r="F11" s="29">
-        <v>0.016853975484152</v>
+        <v>0.070428293319794</v>
       </c>
       <c r="G11" s="29">
-        <v>69660.92952014</v>
+        <v>346639.30705732</v>
       </c>
       <c r="H11" s="29">
-        <v>0.015594297908932</v>
+        <v>0.077598686357393</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1802,14 +1790,24 @@
       <c r="P11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="Q11" s="31">
+        <v>0</v>
+      </c>
+      <c r="R11" s="29">
+        <v>0</v>
+      </c>
+      <c r="S11" s="29">
+        <v>0</v>
+      </c>
+      <c r="T11" s="29">
+        <v>0</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="29">
+        <v>0</v>
+      </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -1817,14 +1815,26 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AD11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="AE11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="29">
+        <v>0</v>
+      </c>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
@@ -1832,14 +1842,26 @@
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AR11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="AS11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="29">
+        <v>0</v>
+      </c>
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
@@ -1847,14 +1869,26 @@
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
       <c r="BF11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="BG11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="29">
+        <v>0</v>
+      </c>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
       <c r="BO11" s="5"/>
@@ -1862,14 +1896,26 @@
       <c r="BQ11" s="5"/>
       <c r="BR11" s="5"/>
       <c r="BT11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BU11" s="5"/>
-      <c r="BV11" s="5"/>
-      <c r="BW11" s="5"/>
-      <c r="BX11" s="5"/>
-      <c r="BY11" s="5"/>
-      <c r="BZ11" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="BU11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="29">
+        <v>0</v>
+      </c>
       <c r="CA11" s="5"/>
       <c r="CB11" s="5"/>
       <c r="CC11" s="5"/>
@@ -1877,14 +1923,26 @@
       <c r="CE11" s="5"/>
       <c r="CF11" s="5"/>
       <c r="CH11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="CI11" s="5"/>
-      <c r="CJ11" s="5"/>
-      <c r="CK11" s="5"/>
-      <c r="CL11" s="5"/>
-      <c r="CM11" s="5"/>
-      <c r="CN11" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="CI11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="29">
+        <v>0</v>
+      </c>
       <c r="CO11" s="5"/>
       <c r="CP11" s="5"/>
       <c r="CQ11" s="5"/>
@@ -1892,7 +1950,7 @@
       <c r="CS11" s="5"/>
       <c r="CT11" s="5"/>
       <c r="CV11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CW11" s="5"/>
       <c r="CX11" s="5"/>
@@ -1909,25 +1967,25 @@
     </row>
     <row r="12" spans="1:112">
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="28">
-        <v>1366602.1670339</v>
+        <v>1243581.8475468</v>
       </c>
       <c r="D12" s="29">
-        <v>0.96663410632388</v>
+        <v>0.87961855823267</v>
       </c>
       <c r="E12" s="29">
-        <v>2959562.9349108</v>
+        <v>2693040.7604966</v>
       </c>
       <c r="F12" s="29">
-        <v>0.96929880031914</v>
+        <v>0.88200901138754</v>
       </c>
       <c r="G12" s="29">
-        <v>4325932.8368985</v>
+        <v>3936414.2468906</v>
       </c>
       <c r="H12" s="29">
-        <v>0.96840346313673</v>
+        <v>0.8812058191275</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1936,16 +1994,26 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="P12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0</v>
+      </c>
+      <c r="S12" s="29">
+        <v>0</v>
+      </c>
+      <c r="T12" s="29">
+        <v>0</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0</v>
+      </c>
+      <c r="V12" s="29">
+        <v>0</v>
+      </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -1953,14 +2021,26 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AD12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="29">
+        <v>0</v>
+      </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
@@ -1970,12 +2050,24 @@
       <c r="AR12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
+      <c r="AS12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="29">
+        <v>0</v>
+      </c>
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
@@ -1985,12 +2077,24 @@
       <c r="BF12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="5"/>
+      <c r="BG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="29">
+        <v>0</v>
+      </c>
       <c r="BM12" s="5"/>
       <c r="BN12" s="5"/>
       <c r="BO12" s="5"/>
@@ -2000,12 +2104,24 @@
       <c r="BT12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BU12" s="5"/>
-      <c r="BV12" s="5"/>
-      <c r="BW12" s="5"/>
-      <c r="BX12" s="5"/>
-      <c r="BY12" s="5"/>
-      <c r="BZ12" s="5"/>
+      <c r="BU12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="29">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="29">
+        <v>0</v>
+      </c>
       <c r="CA12" s="5"/>
       <c r="CB12" s="5"/>
       <c r="CC12" s="5"/>
@@ -2015,12 +2131,24 @@
       <c r="CH12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="CI12" s="5"/>
-      <c r="CJ12" s="5"/>
-      <c r="CK12" s="5"/>
-      <c r="CL12" s="5"/>
-      <c r="CM12" s="5"/>
-      <c r="CN12" s="5"/>
+      <c r="CI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CM12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="29">
+        <v>0</v>
+      </c>
       <c r="CO12" s="5"/>
       <c r="CP12" s="5"/>
       <c r="CQ12" s="5"/>
@@ -2045,25 +2173,25 @@
     </row>
     <row r="13" spans="1:112">
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="28">
-        <v>28644.416475848</v>
+        <v>40451.881402971</v>
       </c>
       <c r="D13" s="30">
-        <v>0.020260958594406</v>
+        <v>0.02861269297849</v>
       </c>
       <c r="E13" s="30">
-        <v>42279.771181478</v>
+        <v>145223.32022519</v>
       </c>
       <c r="F13" s="30">
-        <v>0.013847224196707</v>
+        <v>0.047562695292667</v>
       </c>
       <c r="G13" s="30">
-        <v>71483.233581409</v>
+        <v>184023.44605204</v>
       </c>
       <c r="H13" s="30">
-        <v>0.016002238954334</v>
+        <v>0.041195494515103</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2072,16 +2200,26 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="P13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>0</v>
+      </c>
+      <c r="R13" s="30">
+        <v>0</v>
+      </c>
+      <c r="S13" s="30">
+        <v>0</v>
+      </c>
+      <c r="T13" s="30">
+        <v>0</v>
+      </c>
+      <c r="U13" s="30">
+        <v>0</v>
+      </c>
+      <c r="V13" s="30">
+        <v>0</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -2089,14 +2227,26 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AD13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="AE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="30">
+        <v>0</v>
+      </c>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -2104,14 +2254,26 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AR13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="AS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="30">
+        <v>0</v>
+      </c>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
@@ -2119,14 +2281,26 @@
       <c r="BC13" s="4"/>
       <c r="BD13" s="4"/>
       <c r="BF13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
-      <c r="BL13" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="BG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="30">
+        <v>0</v>
+      </c>
       <c r="BM13" s="4"/>
       <c r="BN13" s="4"/>
       <c r="BO13" s="4"/>
@@ -2134,14 +2308,26 @@
       <c r="BQ13" s="4"/>
       <c r="BR13" s="4"/>
       <c r="BT13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU13" s="4"/>
-      <c r="BV13" s="4"/>
-      <c r="BW13" s="4"/>
-      <c r="BX13" s="4"/>
-      <c r="BY13" s="4"/>
-      <c r="BZ13" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="BU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="30">
+        <v>0</v>
+      </c>
       <c r="CA13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
@@ -2149,14 +2335,26 @@
       <c r="CE13" s="4"/>
       <c r="CF13" s="4"/>
       <c r="CH13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CI13" s="4"/>
-      <c r="CJ13" s="4"/>
-      <c r="CK13" s="4"/>
-      <c r="CL13" s="4"/>
-      <c r="CM13" s="4"/>
-      <c r="CN13" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="CI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="30">
+        <v>0</v>
+      </c>
       <c r="CO13" s="4"/>
       <c r="CP13" s="4"/>
       <c r="CQ13" s="4"/>
@@ -2164,7 +2362,7 @@
       <c r="CS13" s="4"/>
       <c r="CT13" s="4"/>
       <c r="CV13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CW13" s="4"/>
       <c r="CX13" s="4"/>
@@ -2196,16 +2394,26 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="P14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>0</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0</v>
+      </c>
+      <c r="S14" s="30">
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
+        <v>0</v>
+      </c>
+      <c r="U14" s="30">
+        <v>0</v>
+      </c>
+      <c r="V14" s="30">
+        <v>0</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -2213,14 +2421,26 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AD14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="AE14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="30">
+        <v>0</v>
+      </c>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
@@ -2228,14 +2448,26 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AR14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="AS14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="30">
+        <v>0</v>
+      </c>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
@@ -2243,14 +2475,26 @@
       <c r="BC14" s="4"/>
       <c r="BD14" s="4"/>
       <c r="BF14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="4"/>
-      <c r="BL14" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="BG14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="30">
+        <v>0</v>
+      </c>
       <c r="BM14" s="4"/>
       <c r="BN14" s="4"/>
       <c r="BO14" s="4"/>
@@ -2258,14 +2502,26 @@
       <c r="BQ14" s="4"/>
       <c r="BR14" s="4"/>
       <c r="BT14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BU14" s="4"/>
-      <c r="BV14" s="4"/>
-      <c r="BW14" s="4"/>
-      <c r="BX14" s="4"/>
-      <c r="BY14" s="4"/>
-      <c r="BZ14" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="BU14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="30">
+        <v>0</v>
+      </c>
       <c r="CA14" s="4"/>
       <c r="CB14" s="4"/>
       <c r="CC14" s="4"/>
@@ -2273,14 +2529,26 @@
       <c r="CE14" s="4"/>
       <c r="CF14" s="4"/>
       <c r="CH14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="CI14" s="4"/>
-      <c r="CJ14" s="4"/>
-      <c r="CK14" s="4"/>
-      <c r="CL14" s="4"/>
-      <c r="CM14" s="4"/>
-      <c r="CN14" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="CI14" s="30">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="30">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="30">
+        <v>0</v>
+      </c>
+      <c r="CL14" s="30">
+        <v>0</v>
+      </c>
+      <c r="CM14" s="30">
+        <v>0</v>
+      </c>
+      <c r="CN14" s="30">
+        <v>0</v>
+      </c>
       <c r="CO14" s="4"/>
       <c r="CP14" s="4"/>
       <c r="CQ14" s="4"/>
@@ -2288,7 +2556,7 @@
       <c r="CS14" s="4"/>
       <c r="CT14" s="4"/>
       <c r="CV14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CW14" s="4"/>
       <c r="CX14" s="4"/>
@@ -2305,16 +2573,26 @@
     </row>
     <row r="15" spans="1:112">
       <c r="P15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>0</v>
+      </c>
+      <c r="R15" s="30">
+        <v>0</v>
+      </c>
+      <c r="S15" s="30">
+        <v>0</v>
+      </c>
+      <c r="T15" s="30">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
+      <c r="V15" s="30">
+        <v>0</v>
+      </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -2322,14 +2600,26 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AD15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="AE15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="30">
+        <v>0</v>
+      </c>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -2337,14 +2627,26 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AR15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="AS15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="30">
+        <v>0</v>
+      </c>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
@@ -2352,14 +2654,26 @@
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
       <c r="BF15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
-      <c r="BL15" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="BG15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="30">
+        <v>0</v>
+      </c>
       <c r="BM15" s="4"/>
       <c r="BN15" s="4"/>
       <c r="BO15" s="4"/>
@@ -2367,14 +2681,26 @@
       <c r="BQ15" s="4"/>
       <c r="BR15" s="4"/>
       <c r="BT15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BU15" s="4"/>
-      <c r="BV15" s="4"/>
-      <c r="BW15" s="4"/>
-      <c r="BX15" s="4"/>
-      <c r="BY15" s="4"/>
-      <c r="BZ15" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="BU15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="30">
+        <v>0</v>
+      </c>
       <c r="CA15" s="4"/>
       <c r="CB15" s="4"/>
       <c r="CC15" s="4"/>
@@ -2382,14 +2708,26 @@
       <c r="CE15" s="4"/>
       <c r="CF15" s="4"/>
       <c r="CH15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI15" s="4"/>
-      <c r="CJ15" s="4"/>
-      <c r="CK15" s="4"/>
-      <c r="CL15" s="4"/>
-      <c r="CM15" s="4"/>
-      <c r="CN15" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="CI15" s="30">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="30">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="30">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="30">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="30">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="30">
+        <v>0</v>
+      </c>
       <c r="CO15" s="4"/>
       <c r="CP15" s="4"/>
       <c r="CQ15" s="4"/>
@@ -2397,7 +2735,7 @@
       <c r="CS15" s="4"/>
       <c r="CT15" s="4"/>
       <c r="CV15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="CW15" s="4"/>
       <c r="CX15" s="4"/>
@@ -2414,10 +2752,10 @@
     </row>
     <row r="16" spans="1:112">
       <c r="P16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2431,7 +2769,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AD16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -2446,7 +2784,7 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AR16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
@@ -2461,7 +2799,7 @@
       <c r="BC16" s="4"/>
       <c r="BD16" s="4"/>
       <c r="BF16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BG16" s="4"/>
       <c r="BH16" s="4"/>
@@ -2476,7 +2814,7 @@
       <c r="BQ16" s="4"/>
       <c r="BR16" s="4"/>
       <c r="BT16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BU16" s="4"/>
       <c r="BV16" s="4"/>
@@ -2491,7 +2829,7 @@
       <c r="CE16" s="4"/>
       <c r="CF16" s="4"/>
       <c r="CH16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="CI16" s="4"/>
       <c r="CJ16" s="4"/>
@@ -2506,7 +2844,7 @@
       <c r="CS16" s="4"/>
       <c r="CT16" s="4"/>
       <c r="CV16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="CW16" s="4"/>
       <c r="CX16" s="4"/>
@@ -2524,6 +2862,70 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="CV7:DH7"/>
+    <mergeCell ref="CV8:CV10"/>
+    <mergeCell ref="CW8:DB8"/>
+    <mergeCell ref="DC8:DH8"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="CH7:CT7"/>
+    <mergeCell ref="CH8:CH10"/>
+    <mergeCell ref="CI8:CN8"/>
+    <mergeCell ref="CO8:CT8"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CQ9:CR9"/>
+    <mergeCell ref="CS9:CT9"/>
+    <mergeCell ref="BT7:CF7"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="BU8:BZ8"/>
+    <mergeCell ref="CA8:CF8"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="BY9:BZ9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="BF7:BR7"/>
+    <mergeCell ref="BF8:BF10"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="P7:AB7"/>
     <mergeCell ref="Q8:V8"/>
     <mergeCell ref="AG9:AH9"/>
@@ -2540,70 +2942,6 @@
     <mergeCell ref="AD7:AP7"/>
     <mergeCell ref="AD8:AD10"/>
     <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BF7:BR7"/>
-    <mergeCell ref="BF8:BF10"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BT7:CF7"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="BU8:BZ8"/>
-    <mergeCell ref="CA8:CF8"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="BY9:BZ9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CH7:CT7"/>
-    <mergeCell ref="CH8:CH10"/>
-    <mergeCell ref="CI8:CN8"/>
-    <mergeCell ref="CO8:CT8"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CQ9:CR9"/>
-    <mergeCell ref="CS9:CT9"/>
-    <mergeCell ref="CV7:DH7"/>
-    <mergeCell ref="CV8:CV10"/>
-    <mergeCell ref="CW8:DB8"/>
-    <mergeCell ref="DC8:DH8"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DG9:DH9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
